--- a/ParametricGraph/BenchRozenbrok.xlsx
+++ b/ParametricGraph/BenchRozenbrok.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -418,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="K1">
+        <v>2500</v>
+      </c>
+      <c r="L1">
         <v>0</v>
-      </c>
-      <c r="L1">
-        <v>-2500</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>

--- a/ParametricGraph/BenchRozenbrok.xlsx
+++ b/ParametricGraph/BenchRozenbrok.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -42,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -142,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +182,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -383,14 +393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
@@ -403,7 +413,7 @@
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +441,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>980</v>
       </c>
@@ -443,12 +453,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -457,7 +467,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-2</v>
       </c>
@@ -468,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.98</v>
       </c>
@@ -479,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1.96</v>
       </c>
@@ -491,7 +501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-1.94</v>
       </c>
@@ -499,7 +509,7 @@
         <v>-1.94</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.92</v>
       </c>
@@ -507,7 +517,7 @@
         <v>-1.92</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.9</v>
       </c>
@@ -515,7 +525,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1.88</v>
       </c>
@@ -523,7 +533,7 @@
         <v>-1.88</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1.86</v>
       </c>
@@ -531,7 +541,7 @@
         <v>-1.86</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1.84</v>
       </c>
@@ -539,7 +549,7 @@
         <v>-1.84</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.82</v>
       </c>
@@ -547,7 +557,7 @@
         <v>-1.82</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.8</v>
       </c>
@@ -555,7 +565,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.78</v>
       </c>
@@ -563,7 +573,7 @@
         <v>-1.78</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.76</v>
       </c>
@@ -571,7 +581,7 @@
         <v>-1.76</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.74</v>
       </c>
@@ -579,7 +589,7 @@
         <v>-1.74</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.72</v>
       </c>
@@ -587,7 +597,7 @@
         <v>-1.72</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.7</v>
       </c>
@@ -595,7 +605,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1.68</v>
       </c>
@@ -603,7 +613,7 @@
         <v>-1.68</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.66</v>
       </c>
@@ -611,7 +621,7 @@
         <v>-1.66</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.64</v>
       </c>
@@ -619,7 +629,7 @@
         <v>-1.64</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.62</v>
       </c>
@@ -627,7 +637,7 @@
         <v>-1.62</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.6</v>
       </c>
@@ -635,7 +645,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.58</v>
       </c>
@@ -643,7 +653,7 @@
         <v>-1.58</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.56</v>
       </c>
@@ -651,7 +661,7 @@
         <v>-1.56</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.54</v>
       </c>
@@ -659,7 +669,7 @@
         <v>-1.54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.52</v>
       </c>
@@ -667,7 +677,7 @@
         <v>-1.52</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.5</v>
       </c>
@@ -675,7 +685,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.48</v>
       </c>
@@ -683,7 +693,7 @@
         <v>-1.48</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.46</v>
       </c>
@@ -691,7 +701,7 @@
         <v>-1.46</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.44</v>
       </c>
@@ -699,7 +709,7 @@
         <v>-1.44</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.42</v>
       </c>
@@ -707,7 +717,7 @@
         <v>-1.42</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.4</v>
       </c>
@@ -715,7 +725,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.38</v>
       </c>
@@ -723,7 +733,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.36</v>
       </c>
@@ -731,7 +741,7 @@
         <v>-1.36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.34</v>
       </c>
@@ -739,7 +749,7 @@
         <v>-1.34</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.32</v>
       </c>
@@ -747,7 +757,7 @@
         <v>-1.32</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.3</v>
       </c>
@@ -755,7 +765,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.28</v>
       </c>
@@ -763,7 +773,7 @@
         <v>-1.28</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1.26</v>
       </c>
@@ -771,7 +781,7 @@
         <v>-1.26</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-1.24</v>
       </c>
@@ -779,7 +789,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.22</v>
       </c>
@@ -787,7 +797,7 @@
         <v>-1.22</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-1.2</v>
       </c>
@@ -795,7 +805,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-1.18</v>
       </c>
@@ -803,7 +813,7 @@
         <v>-1.18</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-1.1599999999999999</v>
       </c>
@@ -811,7 +821,7 @@
         <v>-1.1599999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-1.1399999999999999</v>
       </c>
@@ -819,7 +829,7 @@
         <v>-1.1399999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-1.1200000000000001</v>
       </c>
@@ -827,7 +837,7 @@
         <v>-1.1200000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-1.1000000000000001</v>
       </c>
@@ -835,7 +845,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-1.08</v>
       </c>
@@ -843,7 +853,7 @@
         <v>-1.08</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-1.06</v>
       </c>
@@ -851,7 +861,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-1.04</v>
       </c>
@@ -859,7 +869,7 @@
         <v>-1.04</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-1.02</v>
       </c>
@@ -867,7 +877,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-1</v>
       </c>
@@ -875,7 +885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-0.98</v>
       </c>
@@ -883,7 +893,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-0.96</v>
       </c>
@@ -891,7 +901,7 @@
         <v>-0.96</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-0.94</v>
       </c>
@@ -899,7 +909,7 @@
         <v>-0.94</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-0.92</v>
       </c>
@@ -907,7 +917,7 @@
         <v>-0.92</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-0.9</v>
       </c>
@@ -915,7 +925,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-0.88</v>
       </c>
@@ -923,7 +933,7 @@
         <v>-0.88</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-0.86</v>
       </c>
@@ -931,7 +941,7 @@
         <v>-0.86</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-0.84</v>
       </c>
@@ -939,7 +949,7 @@
         <v>-0.84</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-0.82</v>
       </c>
@@ -947,7 +957,7 @@
         <v>-0.82</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-0.8</v>
       </c>
@@ -955,7 +965,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-0.78</v>
       </c>
@@ -963,7 +973,7 @@
         <v>-0.78</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-0.76</v>
       </c>
@@ -971,7 +981,7 @@
         <v>-0.76</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-0.74</v>
       </c>
@@ -979,7 +989,7 @@
         <v>-0.74</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-0.72</v>
       </c>
@@ -987,7 +997,7 @@
         <v>-0.72</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-0.7</v>
       </c>
@@ -995,7 +1005,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-0.68</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.66</v>
       </c>
@@ -1011,7 +1021,7 @@
         <v>-0.66</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-0.64</v>
       </c>
@@ -1019,7 +1029,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.62</v>
       </c>
@@ -1027,7 +1037,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-0.6</v>
       </c>
@@ -1035,7 +1045,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.57999999999999996</v>
       </c>
@@ -1043,7 +1053,7 @@
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-0.56000000000000005</v>
       </c>
@@ -1051,7 +1061,7 @@
         <v>-0.56000000000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-0.54</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-0.52</v>
       </c>
@@ -1067,7 +1077,7 @@
         <v>-0.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-0.5</v>
       </c>
@@ -1075,7 +1085,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-0.48</v>
       </c>
@@ -1083,7 +1093,7 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-0.46</v>
       </c>
@@ -1091,7 +1101,7 @@
         <v>-0.46</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.44</v>
       </c>
@@ -1099,7 +1109,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-0.42</v>
       </c>
@@ -1107,7 +1117,7 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.4</v>
       </c>
@@ -1115,7 +1125,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-0.38</v>
       </c>
@@ -1123,7 +1133,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-0.36</v>
       </c>
@@ -1131,7 +1141,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-0.34</v>
       </c>
@@ -1139,7 +1149,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.32</v>
       </c>
@@ -1147,7 +1157,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-0.3</v>
       </c>
@@ -1155,7 +1165,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-0.28000000000000003</v>
       </c>
@@ -1163,7 +1173,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-0.26</v>
       </c>
@@ -1171,7 +1181,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-0.24</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-0.22</v>
       </c>
@@ -1187,7 +1197,7 @@
         <v>-0.22</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-0.2</v>
       </c>
@@ -1195,7 +1205,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>-0.18</v>
       </c>
@@ -1203,7 +1213,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-0.16</v>
       </c>
@@ -1211,7 +1221,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-0.14000000000000001</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-0.12</v>
       </c>
@@ -1227,7 +1237,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>-0.1</v>
       </c>
@@ -1235,7 +1245,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-8.0000000000000099E-2</v>
       </c>
@@ -1243,7 +1253,7 @@
         <v>-8.0000000000000099E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>-6.0000000000000102E-2</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>-6.0000000000000102E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-0.04</v>
       </c>
@@ -1259,7 +1269,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-0.02</v>
       </c>
@@ -1267,7 +1277,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -1275,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0.02</v>
       </c>
@@ -1283,7 +1293,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0.04</v>
       </c>
@@ -1291,7 +1301,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6.0000000000000102E-2</v>
       </c>
@@ -1299,7 +1309,7 @@
         <v>6.0000000000000102E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -1307,7 +1317,7 @@
         <v>8.0000000000000099E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.1</v>
       </c>
@@ -1315,7 +1325,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.12</v>
       </c>
@@ -1323,7 +1333,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.14000000000000001</v>
       </c>
@@ -1331,7 +1341,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.16</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.18</v>
       </c>
@@ -1347,7 +1357,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0.2</v>
       </c>
@@ -1355,7 +1365,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0.22</v>
       </c>
@@ -1363,7 +1373,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0.24</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0.26</v>
       </c>
@@ -1379,7 +1389,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0.28000000000000003</v>
       </c>
@@ -1387,7 +1397,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0.3</v>
       </c>
@@ -1395,7 +1405,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0.32</v>
       </c>
@@ -1403,7 +1413,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0.34</v>
       </c>
@@ -1411,7 +1421,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0.36</v>
       </c>
@@ -1419,7 +1429,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0.38</v>
       </c>
@@ -1427,7 +1437,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0.4</v>
       </c>
@@ -1435,7 +1445,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0.42</v>
       </c>
@@ -1443,7 +1453,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0.44</v>
       </c>
@@ -1451,7 +1461,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0.46</v>
       </c>
@@ -1459,7 +1469,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0.48</v>
       </c>
@@ -1467,7 +1477,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0.5</v>
       </c>
@@ -1475,7 +1485,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0.52</v>
       </c>
@@ -1483,7 +1493,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0.54</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0.56000000000000005</v>
       </c>
@@ -1499,7 +1509,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0.57999999999999996</v>
       </c>
@@ -1507,7 +1517,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0.6</v>
       </c>
@@ -1515,7 +1525,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0.62</v>
       </c>
@@ -1523,7 +1533,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0.64</v>
       </c>
@@ -1531,7 +1541,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0.66</v>
       </c>
@@ -1539,7 +1549,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0.68</v>
       </c>
@@ -1547,7 +1557,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0.7</v>
       </c>
@@ -1555,7 +1565,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0.72</v>
       </c>
@@ -1563,7 +1573,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0.74</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0.76</v>
       </c>
@@ -1579,7 +1589,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0.78</v>
       </c>
@@ -1587,7 +1597,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0.8</v>
       </c>
@@ -1595,7 +1605,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0.82</v>
       </c>
@@ -1603,7 +1613,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0.84</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0.86</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0.88</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0.9</v>
       </c>
@@ -1635,7 +1645,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0.92</v>
       </c>
@@ -1643,7 +1653,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0.94</v>
       </c>
@@ -1651,7 +1661,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0.96</v>
       </c>
@@ -1659,7 +1669,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0.98</v>
       </c>
@@ -1667,7 +1677,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -1675,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1.02</v>
       </c>
@@ -1683,7 +1693,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1.04</v>
       </c>
@@ -1691,7 +1701,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1.06</v>
       </c>
@@ -1699,7 +1709,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1.08</v>
       </c>
@@ -1707,7 +1717,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1.1000000000000001</v>
       </c>
@@ -1715,7 +1725,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1.1200000000000001</v>
       </c>
@@ -1723,7 +1733,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1.1399999999999999</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1.1599999999999999</v>
       </c>
@@ -1739,7 +1749,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1.18</v>
       </c>
@@ -1747,7 +1757,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1.2</v>
       </c>
@@ -1755,7 +1765,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1.22</v>
       </c>
@@ -1763,7 +1773,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.24</v>
       </c>
@@ -1771,7 +1781,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1.26</v>
       </c>
@@ -1779,7 +1789,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1.28</v>
       </c>
@@ -1787,7 +1797,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1.3</v>
       </c>
@@ -1795,7 +1805,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1.32</v>
       </c>
@@ -1803,7 +1813,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1.34</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1.36</v>
       </c>
@@ -1819,7 +1829,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1.38</v>
       </c>
@@ -1827,7 +1837,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1.4</v>
       </c>
@@ -1835,7 +1845,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1.42</v>
       </c>
@@ -1843,7 +1853,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1.44</v>
       </c>
@@ -1851,7 +1861,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1.46</v>
       </c>
@@ -1859,7 +1869,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1.48</v>
       </c>
@@ -1867,7 +1877,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1.5</v>
       </c>
@@ -1875,7 +1885,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1.52</v>
       </c>
@@ -1883,7 +1893,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1.54</v>
       </c>
@@ -1891,7 +1901,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1.56</v>
       </c>
@@ -1899,7 +1909,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1.58</v>
       </c>
@@ -1907,7 +1917,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1.6</v>
       </c>
@@ -1915,7 +1925,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1.62</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1.64</v>
       </c>
@@ -1931,7 +1941,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1.66</v>
       </c>
@@ -1939,7 +1949,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1.68</v>
       </c>
@@ -1947,7 +1957,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1.7</v>
       </c>
@@ -1955,7 +1965,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1.72</v>
       </c>
@@ -1963,7 +1973,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1.74</v>
       </c>
@@ -1971,7 +1981,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1.76</v>
       </c>
@@ -1979,7 +1989,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1.78</v>
       </c>
@@ -1987,7 +1997,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1.8</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1.82</v>
       </c>
@@ -2003,7 +2013,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1.84</v>
       </c>
@@ -2011,7 +2021,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1.86</v>
       </c>
@@ -2019,7 +2029,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1.88</v>
       </c>
@@ -2027,7 +2037,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1.9</v>
       </c>
@@ -2035,7 +2045,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1.92</v>
       </c>
@@ -2043,7 +2053,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1.94</v>
       </c>
@@ -2051,7 +2061,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1.96</v>
       </c>
@@ -2059,7 +2069,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1.98</v>
       </c>
@@ -2067,7 +2077,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2</v>
       </c>
@@ -2079,8 +2089,8 @@
   <conditionalFormatting sqref="E1:E3 D4:D9 E11:E1048576">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2088,8 +2098,8 @@
   <conditionalFormatting sqref="F4:F9">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2100,12 +2110,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2113,12 +2123,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
